--- a/controller/default/customer/uploads/Bang-mau-DSKH.xlsx
+++ b/controller/default/customer/uploads/Bang-mau-DSKH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -51,9 +51,6 @@
     <t>TỔNG GIÁM ĐỐC</t>
   </si>
   <si>
-    <t>GIÁM ĐỐC</t>
-  </si>
-  <si>
     <t>23 Nguyễn Công Trứ, Hà Nội</t>
   </si>
   <si>
@@ -66,40 +63,10 @@
     <t>Tầng 6 - 7 tòa nhà Điện Dầu Khí Việt Nam, 173 Trung Kính, Hà Nội</t>
   </si>
   <si>
-    <t>Tầng 11, Tòa nhà Viện Dầu Khí 173 Trung Kính, Hà Nội</t>
-  </si>
-  <si>
-    <t>N8A2 Phố Nguyễn Thị Thập, Hà Nội</t>
-  </si>
-  <si>
-    <t>Tầng 6, TT TM Dầu khí Hà Nội, 18 Láng Hạ, Hà Nội</t>
-  </si>
-  <si>
-    <t>6A13 ĐẦM TRẤU - HAI BÀ TRUNG - HÀ NỘI</t>
-  </si>
-  <si>
-    <t>01 Hà Nội, Q. Hồng Bàng,</t>
-  </si>
-  <si>
-    <t>asiahotelvn@hn.vnn.vn</t>
-  </si>
-  <si>
-    <t>vidservice@vnn.vn</t>
-  </si>
-  <si>
     <t>headoffice@tunglam.com.vn</t>
   </si>
   <si>
     <t>dmc@pvdmc.com.vn</t>
-  </si>
-  <si>
-    <t>VC11@vnn.vn</t>
-  </si>
-  <si>
-    <t>conghoan2009@vnn.vn</t>
-  </si>
-  <si>
-    <t>visdemco@hn.vnn.vn</t>
   </si>
   <si>
     <t>http://phuonglancompany.com</t>
@@ -114,18 +81,6 @@
     <t>www.drillingmud.com.vn</t>
   </si>
   <si>
-    <t>www.pvgasn.vn</t>
-  </si>
-  <si>
-    <t>www.vinaconex11.com.vn</t>
-  </si>
-  <si>
-    <t>www.pvep.com.vn</t>
-  </si>
-  <si>
-    <t>www.thuanthienjsc.com</t>
-  </si>
-  <si>
     <t>Khách Sạn, Du Lịch - Lữ Hành</t>
   </si>
   <si>
@@ -136,21 +91,6 @@
   </si>
   <si>
     <t>Dầu Khí</t>
-  </si>
-  <si>
-    <t>Khí Đốt-Xăng Hóa Lỏng Đóng Chai</t>
-  </si>
-  <si>
-    <t>Xây Dựng - Thương Mại</t>
-  </si>
-  <si>
-    <t>Dầu Khí - Thăm Dò - Khai thác</t>
-  </si>
-  <si>
-    <t>Dệt-Các Công Ty</t>
-  </si>
-  <si>
-    <t>Tàu Biển-Đóng Tàu &amp; Sửa Chữa</t>
   </si>
   <si>
     <t>CTY TNHH Phương Lan</t>
@@ -165,21 +105,6 @@
     <t>TCTY CP Dung dịch Khoan và Hoá phẩm Dầu Khí</t>
   </si>
   <si>
-    <t>CTY CP Kinh Doanh khí hóa lỏng Miền Bắc</t>
-  </si>
-  <si>
-    <t>CTY CP Xây Dựng Số 11</t>
-  </si>
-  <si>
-    <t>TCTY Thăm Dò Khai Thác Dầu Khí PVEP</t>
-  </si>
-  <si>
-    <t>CTY CP Thuận Thiên</t>
-  </si>
-  <si>
-    <t>CTY CP Công Nghiệp Tàu Thủy và Xây Dựng Hồng Bằng</t>
-  </si>
-  <si>
     <t>Điện thoại</t>
   </si>
   <si>
@@ -187,18 +112,6 @@
   </si>
   <si>
     <t>84-(4) 856 28 61,84-(4) 856 25 52</t>
-  </si>
-  <si>
-    <t>84-(4) 394 455 55,84-(4) 394 453 33</t>
-  </si>
-  <si>
-    <t>84-(4) 378 479 83,84-(4) 376 888 20</t>
-  </si>
-  <si>
-    <t>84 4 3 772 6001 ,84 4 3 772 6027</t>
-  </si>
-  <si>
-    <t>43.984332,43.9845424</t>
   </si>
   <si>
     <t>0249439005, 024943 899</t>
@@ -216,26 +129,14 @@
     <t>Lương Nguyễn Khoa Trường</t>
   </si>
   <si>
-    <t>Trần Trọng Hữu</t>
-  </si>
-  <si>
-    <t>Chu Văn Bình</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nguyễn Vũ Trường Sơn</t>
-  </si>
-  <si>
-    <t>Trần Công Hoan</t>
-  </si>
-  <si>
-    <t>Tống Văn Mạnh</t>
+    <t>vidservic1e@vnn.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,10 +197,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -318,8 +228,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -661,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -703,13 +617,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="8">
@@ -718,20 +632,20 @@
       <c r="G2" s="3">
         <v>2438212045</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -757,27 +671,25 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7">
         <v>21221</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -801,13 +713,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3">
@@ -817,19 +729,19 @@
         <v>2438232789</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -853,35 +765,35 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3">
         <v>212121</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -901,38 +813,18 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3">
-        <v>12111</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -951,40 +843,18 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="3">
-        <v>11111</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1003,38 +873,18 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="3">
-        <v>2112122</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1053,40 +903,18 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="3">
-        <v>111111</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1105,35 +933,17 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="3">
-        <v>2222222</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -30853,8 +30663,11 @@
       <c r="AB1000" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
